--- a/data/users_rentals.xlsx
+++ b/data/users_rentals.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladi\Desktop\08. Put od Excel tabela do Pandas DataFrame-a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\live_classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{456DB9B3-C040-4006-A82D-C5011F779B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6637CE1D-5511-4A2F-9EAA-BF011A4801CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{CD4CE788-E88F-47B0-A58B-0396131885A8}"/>
   </bookViews>
@@ -4836,7 +4836,7 @@
   <dimension ref="A1:K301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J294" sqref="J294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7730,12 +7730,7 @@
       <c r="I89" s="2">
         <v>18</v>
       </c>
-      <c r="J89">
-        <v>457</v>
-      </c>
-      <c r="K89" s="1">
-        <v>46042</v>
-      </c>
+      <c r="K89" s="1"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90">
@@ -8965,12 +8960,7 @@
       <c r="I128" s="2">
         <v>18</v>
       </c>
-      <c r="J128">
-        <v>84</v>
-      </c>
-      <c r="K128" s="1">
-        <v>46052</v>
-      </c>
+      <c r="K128" s="1"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129">
@@ -9105,12 +9095,7 @@
       <c r="I132" s="2">
         <v>17</v>
       </c>
-      <c r="J132">
-        <v>349</v>
-      </c>
-      <c r="K132" s="1">
-        <v>46020</v>
-      </c>
+      <c r="K132" s="1"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133">
@@ -9325,12 +9310,7 @@
       <c r="I139" s="2">
         <v>12</v>
       </c>
-      <c r="J139">
-        <v>439</v>
-      </c>
-      <c r="K139" s="1">
-        <v>46052</v>
-      </c>
+      <c r="K139" s="1"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140">
@@ -9770,7 +9750,7 @@
         <v>1160</v>
       </c>
       <c r="H153" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I153" s="2">
         <v>8</v>
@@ -9925,7 +9905,7 @@
         <v>1165</v>
       </c>
       <c r="H158" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I158" s="2">
         <v>2</v>
@@ -10920,7 +10900,7 @@
         <v>1196</v>
       </c>
       <c r="H189" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I189" s="2">
         <v>11</v>
@@ -11290,7 +11270,7 @@
         <v>1207</v>
       </c>
       <c r="H200" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I200" s="2">
         <v>9</v>
@@ -11985,7 +11965,7 @@
         <v>1228</v>
       </c>
       <c r="H221" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I221" s="2">
         <v>15</v>
@@ -12050,7 +12030,7 @@
         <v>1230</v>
       </c>
       <c r="H223" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I223" s="2">
         <v>14</v>
@@ -13020,7 +13000,7 @@
         <v>1260</v>
       </c>
       <c r="H253" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I253" s="2">
         <v>7</v>
@@ -13310,7 +13290,7 @@
         <v>1269</v>
       </c>
       <c r="H262" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I262" s="2">
         <v>5</v>
@@ -13600,7 +13580,7 @@
         <v>1278</v>
       </c>
       <c r="H271" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I271" s="2">
         <v>15</v>
@@ -14185,7 +14165,7 @@
         <v>1296</v>
       </c>
       <c r="H289" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I289" s="2">
         <v>14</v>
@@ -14390,7 +14370,7 @@
         <v>1302</v>
       </c>
       <c r="H295" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I295" s="2">
         <v>3</v>
@@ -14585,7 +14565,7 @@
         <v>1308</v>
       </c>
       <c r="H301" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I301" s="2">
         <v>13</v>
